--- a/ppl_result.xlsx
+++ b/ppl_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenhatang/PycharmProjects/lm-watermarking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7E59C0-E37F-C94C-9795-93E9768DF464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E4215C-88D3-1B45-9C1F-2EDE07CE6BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="5900" windowWidth="28240" windowHeight="17440" xr2:uid="{81E51A47-BDBA-6A4A-9B15-917A1CA5A044}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33460" windowHeight="21580" xr2:uid="{81E51A47-BDBA-6A4A-9B15-917A1CA5A044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25D6FE0-E430-6C4E-AED5-58D55309DE1E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -483,15 +483,32 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>3.02819512486457</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>3.2106525599956499</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.2937850117683398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3.58328315019607</v>
       </c>
     </row>
   </sheetData>
